--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#  Solent Uni Work (2017 - Present Day)\4. Year 2 - 2nd Semester\Software Engineering for Games. Methods and Tools\AE2\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF9333-5347-43FB-BABD-A85DC22A80F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0091739-AE69-4F91-A78C-C2F964D75F0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
   </si>
   <si>
     <t>Actual Burndown</t>
@@ -93,6 +87,24 @@
   </si>
   <si>
     <t>Landing - Assets &amp; Props</t>
+  </si>
+  <si>
+    <t>MSQI</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thurs</t>
   </si>
 </sst>
 </file>
@@ -202,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +239,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,32 +372,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$J$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.142857142857146</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.285714285714288</c:v>
+                  <c:v>26.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.428571428571431</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.571428571428573</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8571428571428585</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -427,33 +436,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$J$3</c:f>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1523,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1534,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1551,85 +1554,86 @@
       <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(B7:B38)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <f>$C3-SUM(C7:C38)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <f>$C3-SUM(C7:D38)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>35</v>
-      </c>
-      <c r="I3" s="2">
-        <f>$C3-SUM(C7:H38)</f>
-        <v>35</v>
-      </c>
-      <c r="J3" s="2">
-        <f>$C3-SUM(C7:I38)</f>
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9">
         <f>C3</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9">
-        <f>C4-$C4/7</f>
-        <v>35.142857142857146</v>
+        <f>C4-$C4/5</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="E4" s="9">
-        <f>D4-$C4/7</f>
-        <v>29.285714285714288</v>
+        <f>D4-$C4/5</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:J4" si="0">E4-$C4/7</f>
-        <v>23.428571428571431</v>
+        <f>E4-$C4/5</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>17.571428571428573</v>
+        <f>F4-$C4/5</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>11.714285714285715</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
-        <v>5.8571428571428585</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G4-$C4/5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,16 +1658,12 @@
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -1683,16 +1683,12 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -1701,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -1712,16 +1708,12 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8">
         <v>5</v>
@@ -1741,16 +1733,12 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -1770,16 +1758,12 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -1799,16 +1783,12 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
@@ -1828,16 +1808,12 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8">
         <v>5</v>
@@ -1857,16 +1833,12 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
@@ -1886,16 +1858,12 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8">
         <v>5</v>
@@ -1915,17 +1883,15 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -1942,12 +1908,8 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1969,12 +1931,8 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1996,12 +1954,8 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -2023,12 +1977,8 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -2050,12 +2000,8 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -2077,12 +2023,8 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2104,12 +2046,8 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2131,12 +2069,8 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -2158,12 +2092,8 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -2185,12 +2115,8 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -2212,12 +2138,8 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -2239,12 +2161,8 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -2266,12 +2184,8 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2293,12 +2207,8 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -2320,12 +2230,8 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -2347,12 +2253,8 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -2374,12 +2276,8 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -2401,12 +2299,8 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2428,12 +2322,8 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2455,12 +2345,8 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -2482,12 +2368,8 @@
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -2509,12 +2391,8 @@
       <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2536,15 +2414,12 @@
       <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#  Solent Uni Work (2017 - Present Day)\4. Year 2 - 2nd Semester\Software Engineering for Games. Methods and Tools\AE2\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0091739-AE69-4F91-A78C-C2F964D75F0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2290F26-6B52-48FE-80A1-C1E948CFB4BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
   </bookViews>
@@ -450,13 +450,13 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1523,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,15 +1575,15 @@
       </c>
       <c r="F3" s="2">
         <f>$C3-SUM(C7:E38)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2290F26-6B52-48FE-80A1-C1E948CFB4BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387EB900-0C61-4FA8-B8D1-EA7B2A12DFC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
   </bookViews>
@@ -453,10 +453,10 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1523,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,11 +1579,11 @@
       </c>
       <c r="G3" s="2">
         <f>$C3-SUM(C7:F38)</f>
-        <v>29</v>
+        <v>21.5</v>
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>29</v>
+        <v>21.5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387EB900-0C61-4FA8-B8D1-EA7B2A12DFC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D171F-2B5B-4433-8763-08B4E31815D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -238,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,7 +457,7 @@
                   <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1524,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1584,7 @@
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1731,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1756,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1781,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2cartj31\Desktop\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D171F-2B5B-4433-8763-08B4E31815D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,6 +305,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -457,7 +457,7 @@
                   <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,6 +598,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -605,7 +606,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1520,11 +1520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C3C2E6-71D3-4C13-A7E5-187F2D8699C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H3" s="2">
         <f>$C3-SUM(C7:G38)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>

--- a/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Burndown - Sprint 1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Thurs</t>
+  </si>
+  <si>
+    <t>Verlocity</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +251,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,8 +1677,10 @@
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1684,8 +1704,10 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1709,8 +1731,10 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1734,8 +1758,10 @@
       <c r="G9" s="8">
         <v>0.5</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1759,8 +1785,10 @@
       <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1784,8 +1812,8 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1809,8 +1837,8 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1834,8 +1862,8 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1859,8 +1887,8 @@
       <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1884,8 +1912,8 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1909,10 +1937,12 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>0</v>
@@ -1932,10 +1962,10 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>0</v>
@@ -1955,10 +1985,10 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>0</v>
@@ -1978,10 +2008,10 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>0</v>
@@ -2001,10 +2031,10 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>0</v>
@@ -2024,10 +2054,10 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>0</v>
@@ -2047,10 +2077,10 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>0</v>
@@ -2070,10 +2100,10 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>0</v>
@@ -2093,10 +2123,14 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="K24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>0</v>
@@ -2116,10 +2150,15 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="K25" s="11">
+        <f>SUM(B7+B8+B9+B10+B16)</f>
+        <v>19</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>0</v>
@@ -2139,10 +2178,10 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>0</v>
@@ -2162,10 +2201,10 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>0</v>
@@ -2185,10 +2224,10 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>0</v>
@@ -2208,10 +2247,10 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8">
         <v>0</v>
@@ -2231,10 +2270,10 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>0</v>
@@ -2254,10 +2293,10 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>0</v>
@@ -2277,8 +2316,8 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -2300,8 +2339,8 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2323,8 +2362,8 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2346,8 +2385,8 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -2369,8 +2408,8 @@
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -2392,8 +2431,8 @@
       <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2415,10 +2454,47 @@
       <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
